--- a/utils/localisation_script/excel_to_json/or/k.xlsx
+++ b/utils/localisation_script/excel_to_json/or/k.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/or/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/or/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD4232-DE59-A440-823B-E8D5556DB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0461C0B-2D6A-944A-95BB-80C3004201C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delta" sheetId="7" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Page Name</t>
   </si>
   <si>
-    <t>English Copy</t>
-  </si>
-  <si>
     <t>All functional Pages</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Odia</t>
+  </si>
+  <si>
+    <t>English copy</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -578,7 +578,7 @@
     <col min="8" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -588,11 +588,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -604,71 +604,71 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="32">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="189">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="133">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -677,20 +677,20 @@
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="26">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="26">
+    <row r="10" spans="1:7" ht="18">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
@@ -703,7 +703,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="26">
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -712,14 +712,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="27">
+    <row r="12" spans="1:7" ht="19">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
@@ -729,22 +729,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="189">
+    <row r="13" spans="1:7" ht="133">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -756,17 +756,17 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
@@ -776,22 +776,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="189">
+    <row r="16" spans="1:7" ht="133">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -803,17 +803,17 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="12">
         <v>3</v>
@@ -823,22 +823,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="162">
+    <row r="19" spans="1:7" ht="114">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -850,17 +850,17 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="12">
         <v>4</v>
@@ -870,22 +870,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="216">
+    <row r="22" spans="1:7" ht="152">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
